--- a/data_quarter/zb/价格指数/固定资产投资价格指数_当季（上年同季=100）(2019-).xlsx
+++ b/data_quarter/zb/价格指数/固定资产投资价格指数_当季（上年同季=100）(2019-).xlsx
@@ -513,7 +513,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -565,111 +565,111 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103.9</v>
+        <v>104.3</v>
       </c>
       <c r="C3" t="n">
-        <v>100.6</v>
+        <v>101.1</v>
       </c>
       <c r="D3" t="n">
         <v>103.5</v>
       </c>
       <c r="E3" t="n">
-        <v>100.3</v>
+        <v>102.3</v>
       </c>
       <c r="F3" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>104.1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="I3" t="n">
         <v>102.1</v>
       </c>
-      <c r="G3" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
+        <v>104.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="L3" t="n">
         <v>101.1</v>
       </c>
-      <c r="I3" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>93.59999999999999</v>
-      </c>
-      <c r="L3" t="n">
-        <v>100.8</v>
-      </c>
       <c r="M3" t="n">
-        <v>101.8</v>
+        <v>102.8</v>
       </c>
       <c r="N3" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="O3" t="n">
-        <v>98.5</v>
+        <v>102.8</v>
       </c>
       <c r="P3" t="n">
-        <v>104.2</v>
+        <v>106.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.3</v>
+        <v>103.9</v>
       </c>
       <c r="C4" t="n">
-        <v>101.1</v>
+        <v>100.6</v>
       </c>
       <c r="D4" t="n">
         <v>103.5</v>
       </c>
       <c r="E4" t="n">
-        <v>102.3</v>
+        <v>100.3</v>
       </c>
       <c r="F4" t="n">
-        <v>103.4</v>
+        <v>102.1</v>
       </c>
       <c r="G4" t="n">
-        <v>104.1</v>
+        <v>102.1</v>
       </c>
       <c r="H4" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="I4" t="n">
         <v>101.5</v>
       </c>
-      <c r="I4" t="n">
-        <v>102.1</v>
-      </c>
       <c r="J4" t="n">
-        <v>104.4</v>
+        <v>101.5</v>
       </c>
       <c r="K4" t="n">
-        <v>102.6</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>101.1</v>
+        <v>100.8</v>
       </c>
       <c r="M4" t="n">
-        <v>102.8</v>
+        <v>101.8</v>
       </c>
       <c r="N4" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="O4" t="n">
-        <v>102.8</v>
+        <v>98.5</v>
       </c>
       <c r="P4" t="n">
-        <v>106.3</v>
+        <v>104.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B5" t="n">

--- a/data_quarter/zb/价格指数/固定资产投资价格指数_当季（上年同季=100）(2019-).xlsx
+++ b/data_quarter/zb/价格指数/固定资产投资价格指数_当季（上年同季=100）(2019-).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -565,105 +565,105 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>104.3</v>
+        <v>103.9</v>
       </c>
       <c r="C3" t="n">
-        <v>101.1</v>
+        <v>100.6</v>
       </c>
       <c r="D3" t="n">
         <v>103.5</v>
       </c>
       <c r="E3" t="n">
-        <v>102.3</v>
+        <v>100.3</v>
       </c>
       <c r="F3" t="n">
-        <v>103.4</v>
+        <v>102.1</v>
       </c>
       <c r="G3" t="n">
-        <v>104.1</v>
+        <v>102.1</v>
       </c>
       <c r="H3" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="I3" t="n">
         <v>101.5</v>
       </c>
-      <c r="I3" t="n">
-        <v>102.1</v>
-      </c>
       <c r="J3" t="n">
-        <v>104.4</v>
+        <v>101.5</v>
       </c>
       <c r="K3" t="n">
-        <v>102.6</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>101.1</v>
+        <v>100.8</v>
       </c>
       <c r="M3" t="n">
-        <v>102.8</v>
+        <v>101.8</v>
       </c>
       <c r="N3" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="O3" t="n">
-        <v>102.8</v>
+        <v>98.5</v>
       </c>
       <c r="P3" t="n">
-        <v>106.3</v>
+        <v>104.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103.9</v>
+        <v>104.3</v>
       </c>
       <c r="C4" t="n">
-        <v>100.6</v>
+        <v>101.1</v>
       </c>
       <c r="D4" t="n">
         <v>103.5</v>
       </c>
       <c r="E4" t="n">
-        <v>100.3</v>
+        <v>102.3</v>
       </c>
       <c r="F4" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>104.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="I4" t="n">
         <v>102.1</v>
       </c>
-      <c r="G4" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>104.4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="L4" t="n">
         <v>101.1</v>
       </c>
-      <c r="I4" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>93.59999999999999</v>
-      </c>
-      <c r="L4" t="n">
-        <v>100.8</v>
-      </c>
       <c r="M4" t="n">
-        <v>101.8</v>
+        <v>102.8</v>
       </c>
       <c r="N4" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="O4" t="n">
-        <v>98.5</v>
+        <v>102.8</v>
       </c>
       <c r="P4" t="n">
-        <v>104.2</v>
+        <v>106.3</v>
       </c>
     </row>
     <row r="5">
